--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_20_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_20_9.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_15</t>
+          <t>model_20_9_3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9798509714487126</v>
+        <v>0.9812266749386368</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8227753215212978</v>
+        <v>0.8012675748407421</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9723730085925152</v>
+        <v>0.9862363389808571</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6980218593275493</v>
+        <v>0.9600364352356582</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9287937465282892</v>
+        <v>0.9730284498354743</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1347366467002045</v>
+        <v>0.125537311128549</v>
       </c>
       <c r="H2" t="n">
-        <v>1.18510224103169</v>
+        <v>1.328924642118634</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1675931404522858</v>
+        <v>0.04697549179343963</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6525602386802225</v>
+        <v>0.1619874380572814</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4100766393584214</v>
+        <v>0.1044814387145861</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3525241227781341</v>
+        <v>2.316995092418378</v>
       </c>
       <c r="M2" t="n">
-        <v>0.367064908020645</v>
+        <v>0.3543124484527025</v>
       </c>
       <c r="N2" t="n">
-        <v>1.009124088400583</v>
+        <v>1.008501128329674</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3826916210841941</v>
+        <v>0.3693962629112138</v>
       </c>
       <c r="P2" t="n">
-        <v>158.0088663418959</v>
+        <v>158.1503045295321</v>
       </c>
       <c r="Q2" t="n">
-        <v>251.8623048567473</v>
+        <v>252.0037430443836</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_14</t>
+          <t>model_20_9_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9798150303824873</v>
+        <v>0.9792252676103977</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8227746793100998</v>
+        <v>0.801251021918076</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9730231348701536</v>
+        <v>0.987446547214488</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6978943423794814</v>
+        <v>0.972080329630748</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9291122386429074</v>
+        <v>0.9798627390201924</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1349769847755462</v>
+        <v>0.1389207311481171</v>
       </c>
       <c r="H3" t="n">
-        <v>1.185106535500928</v>
+        <v>1.329035331588721</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1636492906514547</v>
+        <v>0.0428450408277979</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6528357966722069</v>
+        <v>0.1131689803246561</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4082424440503266</v>
+        <v>0.07800701057622703</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3598373632036646</v>
+        <v>2.556092558592106</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3673921403290307</v>
+        <v>0.3727207146753681</v>
       </c>
       <c r="N3" t="n">
-        <v>1.009140363600383</v>
+        <v>1.009407425987744</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3830327843494121</v>
+        <v>0.3885882071373426</v>
       </c>
       <c r="P3" t="n">
-        <v>158.0053019964434</v>
+        <v>157.9477035760652</v>
       </c>
       <c r="Q3" t="n">
-        <v>251.8587405112949</v>
+        <v>251.8011420909166</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_16</t>
+          <t>model_20_9_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9798659747111763</v>
+        <v>0.9825749057438474</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8227591503094944</v>
+        <v>0.80088385306806</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9717717330950949</v>
+        <v>0.9850175964720681</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6980640174953507</v>
+        <v>0.947759482183727</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9284849683278927</v>
+        <v>0.9660684472164717</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1346363198150262</v>
+        <v>0.1165216855260739</v>
       </c>
       <c r="H4" t="n">
-        <v>1.185210377999482</v>
+        <v>1.331490591379435</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1712406476094485</v>
+        <v>0.051135070312578</v>
       </c>
       <c r="J4" t="n">
-        <v>0.652469136907155</v>
+        <v>0.2117505706446505</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4118548922583018</v>
+        <v>0.1314428511159811</v>
       </c>
       <c r="L4" t="n">
-        <v>0.345899623977558</v>
+        <v>2.103083588634546</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3669282216115656</v>
+        <v>0.3413527288979449</v>
       </c>
       <c r="N4" t="n">
-        <v>1.009117294470411</v>
+        <v>1.007890608719767</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3825491156517004</v>
+        <v>0.3558848212646924</v>
       </c>
       <c r="P4" t="n">
-        <v>158.0103561259839</v>
+        <v>158.2993557628878</v>
       </c>
       <c r="Q4" t="n">
-        <v>251.8637946408354</v>
+        <v>252.1527942777393</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_13</t>
+          <t>model_20_9_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9797510458715365</v>
+        <v>0.976339577663538</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8227505679770928</v>
+        <v>0.8006452592273634</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9737228272715914</v>
+        <v>0.9885460698787435</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6976499810406329</v>
+        <v>0.9831641756984005</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9294348885107044</v>
+        <v>0.9861459935439792</v>
       </c>
       <c r="G5" t="n">
-        <v>0.135404849494896</v>
+        <v>0.1582173531101485</v>
       </c>
       <c r="H5" t="n">
-        <v>1.185267768095769</v>
+        <v>1.333086069490797</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1594047587305522</v>
+        <v>0.03909236064920307</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6533638497731638</v>
+        <v>0.0682419614536489</v>
       </c>
       <c r="K5" t="n">
-        <v>0.406384304251858</v>
+        <v>0.05366716105142598</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3679001065208837</v>
+        <v>2.822202405528613</v>
       </c>
       <c r="M5" t="n">
-        <v>0.367973979372042</v>
+        <v>0.3977654498698304</v>
       </c>
       <c r="N5" t="n">
-        <v>1.00916933771855</v>
+        <v>1.010714153510851</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3836393934850572</v>
+        <v>0.4146991485587821</v>
       </c>
       <c r="P5" t="n">
-        <v>157.9989722061652</v>
+        <v>157.6875710774049</v>
       </c>
       <c r="Q5" t="n">
-        <v>251.8524107210166</v>
+        <v>251.5410095922563</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_17</t>
+          <t>model_20_9_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.979865569750684</v>
+        <v>0.9834405452335968</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8227311735000763</v>
+        <v>0.8002346104366046</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9712175805073312</v>
+        <v>0.9838456249475234</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6980456195085971</v>
+        <v>0.9357016002262032</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9281896562185155</v>
+        <v>0.9592436765904341</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1346390277877029</v>
+        <v>0.1107331502722165</v>
       </c>
       <c r="H6" t="n">
-        <v>1.185397459052882</v>
+        <v>1.335832079845465</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1746022938742651</v>
+        <v>0.05513501906580742</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6525088940716983</v>
+        <v>0.260625725256463</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4135555939729817</v>
+        <v>0.1578804065978052</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3398985959881681</v>
+        <v>1.910611416537211</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3669319116507896</v>
+        <v>0.332765909119634</v>
       </c>
       <c r="N6" t="n">
-        <v>1.009117477848747</v>
+        <v>1.007498621026296</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3825529627835336</v>
+        <v>0.3469324427912514</v>
       </c>
       <c r="P6" t="n">
-        <v>158.0103158999075</v>
+        <v>158.4012640472865</v>
       </c>
       <c r="Q6" t="n">
-        <v>251.863754414759</v>
+        <v>252.2547025621379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_18</t>
+          <t>model_20_9_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9798540706124627</v>
+        <v>0.9839504768128167</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8226952495390603</v>
+        <v>0.7994163835566835</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9707087370381309</v>
+        <v>0.982748917611434</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6979840342513515</v>
+        <v>0.924132829705727</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9279101048649551</v>
+        <v>0.9527079668068911</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1347159225779375</v>
+        <v>0.1073232354539541</v>
       </c>
       <c r="H7" t="n">
-        <v>1.185637682745611</v>
+        <v>1.341303566759085</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1776890822162924</v>
+        <v>0.05887809050549335</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6526419768507299</v>
+        <v>0.3075183262828021</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4151655295335111</v>
+        <v>0.1831982083941477</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3344819836176161</v>
+        <v>1.73742002240757</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3670366774287517</v>
+        <v>0.3276022519061096</v>
       </c>
       <c r="N7" t="n">
-        <v>1.009122685005677</v>
+        <v>1.007267708613064</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3826621886575586</v>
+        <v>0.3415489579999033</v>
       </c>
       <c r="P7" t="n">
-        <v>158.0091739896925</v>
+        <v>158.4638202123063</v>
       </c>
       <c r="Q7" t="n">
-        <v>251.8626125045439</v>
+        <v>252.3172587271577</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_12</t>
+          <t>model_20_9_0</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.979649872820715</v>
+        <v>0.9722551537706656</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8226944420956446</v>
+        <v>0.7991848433241506</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9744716479070782</v>
+        <v>0.9893564492931158</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6972477179801505</v>
+        <v>0.9921489945721358</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9297538056936112</v>
+        <v>0.9912036961860492</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1360813941515983</v>
+        <v>0.1855299144888291</v>
       </c>
       <c r="H8" t="n">
-        <v>1.185643082123449</v>
+        <v>1.342851877360177</v>
       </c>
       <c r="I8" t="n">
-        <v>0.154862201052603</v>
+        <v>0.03632652883479888</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6542331209004582</v>
+        <v>0.03182309343355395</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4045476609765306</v>
+        <v>0.03407481113417642</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3767817831289742</v>
+        <v>3.118093671233593</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3688921172261591</v>
+        <v>0.430731835936037</v>
       </c>
       <c r="N8" t="n">
-        <v>1.009215151930242</v>
+        <v>1.012563703952906</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3845966183684315</v>
+        <v>0.4490689819296541</v>
       </c>
       <c r="P8" t="n">
-        <v>157.9890041717177</v>
+        <v>157.3690782916912</v>
       </c>
       <c r="Q8" t="n">
-        <v>251.8424426865691</v>
+        <v>251.2225168065426</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_19</t>
+          <t>model_20_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9798347902859695</v>
+        <v>0.9841994469486148</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8226543359851515</v>
+        <v>0.7984983482344549</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9702426487563874</v>
+        <v>0.9817389620263993</v>
       </c>
       <c r="E9" t="n">
-        <v>0.697893562402054</v>
+        <v>0.9132054326933223</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9276476700544825</v>
+        <v>0.9465460206806796</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1348448502099745</v>
+        <v>0.1056583710094695</v>
       </c>
       <c r="H9" t="n">
-        <v>1.185911271868989</v>
+        <v>1.347442473185993</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1805165055036583</v>
+        <v>0.06232507748305343</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6528374821659155</v>
+        <v>0.3518111979801143</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4166768909643163</v>
+        <v>0.2070681377315839</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3296512227333568</v>
+        <v>1.581581741228086</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3672122685994771</v>
+        <v>0.3250513359601364</v>
       </c>
       <c r="N9" t="n">
-        <v>1.009131415719561</v>
+        <v>1.007154967419495</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3828452551079456</v>
+        <v>0.3388894442809861</v>
       </c>
       <c r="P9" t="n">
-        <v>158.0072608383013</v>
+        <v>158.4950886093034</v>
       </c>
       <c r="Q9" t="n">
-        <v>251.8606993531527</v>
+        <v>252.3485271241548</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_20</t>
+          <t>model_20_9_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9798102171702809</v>
+        <v>0.9842587858121115</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8226105734429912</v>
+        <v>0.7975299188312105</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9698167214796792</v>
+        <v>0.9808184325701219</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6977836644186339</v>
+        <v>0.9029958866656476</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9274027068252573</v>
+        <v>0.9407990369811153</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1350091707477331</v>
+        <v>0.1052615717560376</v>
       </c>
       <c r="H10" t="n">
-        <v>1.186203912189922</v>
+        <v>1.353918365064695</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1831003007803488</v>
+        <v>0.06546685232470584</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6530749664226614</v>
+        <v>0.3931943482196688</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4180876336015051</v>
+        <v>0.2293306002721873</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3252860321997473</v>
+        <v>1.441354095502067</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3674359410124887</v>
+        <v>0.3244403978484147</v>
       </c>
       <c r="N10" t="n">
-        <v>1.009142543168175</v>
+        <v>1.007128096990742</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3830784497186448</v>
+        <v>0.3382524972690321</v>
       </c>
       <c r="P10" t="n">
-        <v>158.0048251427725</v>
+        <v>158.5026137340753</v>
       </c>
       <c r="Q10" t="n">
-        <v>251.858263657624</v>
+        <v>252.3560522489268</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_11</t>
+          <t>model_20_9_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9794998006335329</v>
+        <v>0.9841821497619918</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8225952150240271</v>
+        <v>0.7965463676543676</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9752676850922078</v>
+        <v>0.9799847950187647</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6966315838760568</v>
+        <v>0.8935304855801041</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9300574653513312</v>
+        <v>0.9354796326011098</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1370849275583038</v>
+        <v>0.1057740373760639</v>
       </c>
       <c r="H11" t="n">
-        <v>1.186306614008254</v>
+        <v>1.360495376313081</v>
       </c>
       <c r="I11" t="n">
-        <v>0.150033214435677</v>
+        <v>0.06831206435790101</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6555645570670994</v>
+        <v>0.4315611976504757</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4027988857513881</v>
+        <v>0.2499367211416743</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3865470452452556</v>
+        <v>1.315170905624967</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3702498177694404</v>
+        <v>0.3252292074461701</v>
       </c>
       <c r="N11" t="n">
-        <v>1.00928310914708</v>
+        <v>1.007162800107777</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3860121190346679</v>
+        <v>0.3390748881244249</v>
       </c>
       <c r="P11" t="n">
-        <v>157.9743092720673</v>
+        <v>158.4929003661856</v>
       </c>
       <c r="Q11" t="n">
-        <v>251.8277477869187</v>
+        <v>252.346338881037</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_21</t>
+          <t>model_20_9_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9797823376366737</v>
+        <v>0.9840100684404195</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8225656302417896</v>
+        <v>0.7955724082525637</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9694282808147683</v>
+        <v>0.9792328201241767</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6976626734951321</v>
+        <v>0.8848054447445514</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9271754236535706</v>
+        <v>0.9305835936254936</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1351956013173384</v>
+        <v>0.1069247459657797</v>
       </c>
       <c r="H12" t="n">
-        <v>1.186504447583301</v>
+        <v>1.367008247317614</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1854566916718363</v>
+        <v>0.07087856105092934</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6533364219894207</v>
+        <v>0.4669270870607573</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4193965568306285</v>
+        <v>0.2689028240558433</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3213406075189502</v>
+        <v>1.201626317230572</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3676895447484718</v>
+        <v>0.3269934952958235</v>
       </c>
       <c r="N12" t="n">
-        <v>1.009155167862638</v>
+        <v>1.007240723725093</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3833428498907008</v>
+        <v>0.3409142853604173</v>
       </c>
       <c r="P12" t="n">
-        <v>158.0020653010752</v>
+        <v>158.4712600013777</v>
       </c>
       <c r="Q12" t="n">
-        <v>251.8555038159267</v>
+        <v>252.3246985162292</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_22</t>
+          <t>model_20_9_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.979752595251477</v>
+        <v>0.9837730925706943</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8225207440649182</v>
+        <v>0.7946252424617298</v>
       </c>
       <c r="D13" t="n">
-        <v>0.969074777855604</v>
+        <v>0.9785563643420643</v>
       </c>
       <c r="E13" t="n">
-        <v>0.697535713695576</v>
+        <v>0.8767963992418509</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9269654034951831</v>
+        <v>0.9260953965229347</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1353944887841003</v>
+        <v>0.1085094046978054</v>
       </c>
       <c r="H13" t="n">
-        <v>1.186804601654722</v>
+        <v>1.373341949322217</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1876011405628389</v>
+        <v>0.07318731037257063</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6536107760102668</v>
+        <v>0.4993907766719557</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4206060624084402</v>
+        <v>0.2862890435222631</v>
       </c>
       <c r="L13" t="n">
-        <v>0.31777774169938</v>
+        <v>1.099447420773646</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3679599010545854</v>
+        <v>0.3294076573150742</v>
       </c>
       <c r="N13" t="n">
-        <v>1.009168636112539</v>
+        <v>1.007348033552893</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3836247158244804</v>
+        <v>0.3434312232548319</v>
       </c>
       <c r="P13" t="n">
-        <v>157.9991252451034</v>
+        <v>158.4418368610312</v>
       </c>
       <c r="Q13" t="n">
-        <v>251.8525637599548</v>
+        <v>252.2952753758827</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_23</t>
+          <t>model_20_9_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9797220829076643</v>
+        <v>0.9834943233727176</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8224767823152148</v>
+        <v>0.7937164433841232</v>
       </c>
       <c r="D14" t="n">
-        <v>0.968753193738091</v>
+        <v>0.9779487424334791</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6974077582557101</v>
+        <v>0.8694697275472781</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9267720436732888</v>
+        <v>0.9219945705299538</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1355985249676721</v>
+        <v>0.11037353560829</v>
       </c>
       <c r="H14" t="n">
-        <v>1.187098574077414</v>
+        <v>1.379419092938808</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1895519607364387</v>
+        <v>0.07526112910005579</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6538872815619382</v>
+        <v>0.5290885472359474</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4217196211491884</v>
+        <v>0.3021746784617168</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3145620385425333</v>
+        <v>1.00749903851239</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3682370499660131</v>
+        <v>0.3322251279001785</v>
       </c>
       <c r="N14" t="n">
-        <v>1.009182453022945</v>
+        <v>1.007474268661411</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3839136635388449</v>
+        <v>0.3463686393957122</v>
       </c>
       <c r="P14" t="n">
-        <v>157.9961135627091</v>
+        <v>158.4077697751362</v>
       </c>
       <c r="Q14" t="n">
-        <v>251.8495520775605</v>
+        <v>252.2612082899876</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_10</t>
+          <t>model_20_9_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9792858033166916</v>
+        <v>0.9831909362038558</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8224385379551759</v>
+        <v>0.7928533280481075</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9761073961417526</v>
+        <v>0.9774034601682154</v>
       </c>
       <c r="E15" t="n">
-        <v>0.695727123902147</v>
+        <v>0.8627839074969651</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9303300327637457</v>
+        <v>0.9182564073659469</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1385159286013888</v>
+        <v>0.1124022870034382</v>
       </c>
       <c r="H15" t="n">
-        <v>1.187354314289094</v>
+        <v>1.385190749165025</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1449392898099373</v>
+        <v>0.0771221820961572</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6575190515716917</v>
+        <v>0.5561887037822563</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4012291706908145</v>
+        <v>0.3166554429392067</v>
       </c>
       <c r="L15" t="n">
-        <v>0.397272694896627</v>
+        <v>0.9247558423067461</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3721772811462151</v>
+        <v>0.3352645030471288</v>
       </c>
       <c r="N15" t="n">
-        <v>1.009380013592442</v>
+        <v>1.007611651530329</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3880216385177911</v>
+        <v>0.349537407035042</v>
       </c>
       <c r="P15" t="n">
-        <v>157.9535399040308</v>
+        <v>158.3713419894477</v>
       </c>
       <c r="Q15" t="n">
-        <v>251.8069784188822</v>
+        <v>252.2247805042992</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_24</t>
+          <t>model_20_9_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9796915942141445</v>
+        <v>0.9828758217573967</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8224342915763405</v>
+        <v>0.7920403210986815</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9684612929027504</v>
+        <v>0.9769142352494846</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6972808637725116</v>
+        <v>0.8566960731463389</v>
       </c>
       <c r="F16" t="n">
-        <v>0.926594498375756</v>
+        <v>0.9148558795696969</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1358024030016258</v>
+        <v>0.1145094587578786</v>
       </c>
       <c r="H16" t="n">
-        <v>1.187382709843918</v>
+        <v>1.390627330379389</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1913227137284606</v>
+        <v>0.07879191089309748</v>
       </c>
       <c r="J16" t="n">
-        <v>0.654161494437277</v>
+        <v>0.5808649981916821</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4227421040828688</v>
+        <v>0.3298282874503259</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3116612988172672</v>
+        <v>0.8502946087014013</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3685137758641131</v>
+        <v>0.3383924626197791</v>
       </c>
       <c r="N16" t="n">
-        <v>1.009196259223784</v>
+        <v>1.007754344864575</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3842021702313286</v>
+        <v>0.3527985303224691</v>
       </c>
       <c r="P16" t="n">
-        <v>157.9931087377244</v>
+        <v>158.3341957003214</v>
       </c>
       <c r="Q16" t="n">
-        <v>251.8465472525759</v>
+        <v>252.1876342151728</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_9</t>
+          <t>model_20_9_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9789887772401556</v>
+        <v>0.9825583590465906</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8222057888596355</v>
+        <v>0.7912793924298598</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9769849887216746</v>
+        <v>0.9764755475980478</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6944356584926159</v>
+        <v>0.8511608777833817</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9305499515848437</v>
+        <v>0.911766660114699</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1405021433428637</v>
+        <v>0.1166323333668206</v>
       </c>
       <c r="H17" t="n">
-        <v>1.188910708562684</v>
+        <v>1.395715663891555</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1396155651112385</v>
+        <v>0.08028915556813641</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6603098462100527</v>
+        <v>0.6033012378334472</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3999626587386956</v>
+        <v>0.3417951967007918</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4090263590255476</v>
+        <v>0.7832839848832152</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3748361553303839</v>
+        <v>0.3415147630290974</v>
       </c>
       <c r="N17" t="n">
-        <v>1.009514515966722</v>
+        <v>1.007898101563808</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3907937064806083</v>
+        <v>0.3560537535242649</v>
       </c>
       <c r="P17" t="n">
-        <v>157.9250650704307</v>
+        <v>158.297457483809</v>
       </c>
       <c r="Q17" t="n">
-        <v>251.7785035852821</v>
+        <v>252.1508959986604</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_8</t>
+          <t>model_20_9_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9785844262896698</v>
+        <v>0.982245476718557</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8218729453675415</v>
+        <v>0.7905710643674075</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9778927332787737</v>
+        <v>0.9760821814076238</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6926250683624895</v>
+        <v>0.8461362783575836</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9306883387838176</v>
+        <v>0.9089645844693401</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1432060400106279</v>
+        <v>0.1187245789350722</v>
       </c>
       <c r="H18" t="n">
-        <v>1.191136434526919</v>
+        <v>1.400452256906723</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1341089299945575</v>
+        <v>0.08163171771234934</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6642224444028767</v>
+        <v>0.6236678390875813</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3991656871987171</v>
+        <v>0.3526497783999653</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4218694926871702</v>
+        <v>0.7229826172091226</v>
       </c>
       <c r="M18" t="n">
-        <v>0.378425739096362</v>
+        <v>0.3445643320703294</v>
       </c>
       <c r="N18" t="n">
-        <v>1.009697618283923</v>
+        <v>1.008039784127446</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3945361062589669</v>
+        <v>0.3592331490330604</v>
       </c>
       <c r="P18" t="n">
-        <v>157.8869416929999</v>
+        <v>158.2618978622196</v>
       </c>
       <c r="Q18" t="n">
-        <v>251.7403802078513</v>
+        <v>252.115336377071</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_7</t>
+          <t>model_20_9_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9780418308174609</v>
+        <v>0.9819419519366951</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8214090086931106</v>
+        <v>0.7899146302022744</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9788205281743794</v>
+        <v>0.9757292771968575</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6901172728235363</v>
+        <v>0.8415796726676512</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9307064878268406</v>
+        <v>0.9064251799978442</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1468343784317111</v>
+        <v>0.1207542505489854</v>
       </c>
       <c r="H19" t="n">
-        <v>1.19423878120507</v>
+        <v>1.404841835191571</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1284806638559568</v>
+        <v>0.08283618277681595</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6696416699528331</v>
+        <v>0.6421374847836525</v>
       </c>
       <c r="K19" t="n">
-        <v>0.399061166904395</v>
+        <v>0.3624868337802342</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4378372022778563</v>
+        <v>0.6687120533376507</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3831897420752689</v>
+        <v>0.3474971230801565</v>
       </c>
       <c r="N19" t="n">
-        <v>1.00994332189398</v>
+        <v>1.008177229311685</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3995029227075315</v>
+        <v>0.3622907950278901</v>
       </c>
       <c r="P19" t="n">
-        <v>157.8369000094335</v>
+        <v>158.2279955716703</v>
       </c>
       <c r="Q19" t="n">
-        <v>251.6903385242849</v>
+        <v>252.0814340865218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_6</t>
+          <t>model_20_9_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9773215466319644</v>
+        <v>0.9816510477757743</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8207738611185313</v>
+        <v>0.7893085058729354</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9797580145465817</v>
+        <v>0.9754127148708563</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6866650333523066</v>
+        <v>0.8374509353602213</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9305525567072437</v>
+        <v>0.9041256387651296</v>
       </c>
       <c r="G20" t="n">
-        <v>0.15165092209673</v>
+        <v>0.122699528012554</v>
       </c>
       <c r="H20" t="n">
-        <v>1.198486015960868</v>
+        <v>1.408894991372806</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1227936064803918</v>
+        <v>0.08391661268034951</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6771017934184268</v>
+        <v>0.6588728181500805</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3999476558451742</v>
+        <v>0.371394715415215</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4553023961878606</v>
+        <v>0.6198755109220305</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3894238334985803</v>
+        <v>0.3502849240440616</v>
       </c>
       <c r="N20" t="n">
-        <v>1.010269488317601</v>
+        <v>1.008308959497763</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4060024123090816</v>
+        <v>0.3651972784503723</v>
       </c>
       <c r="P20" t="n">
-        <v>157.7723479288784</v>
+        <v>158.1960335479022</v>
       </c>
       <c r="Q20" t="n">
-        <v>251.6257864437298</v>
+        <v>252.0494720627537</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_5</t>
+          <t>model_20_9_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9763739844962014</v>
+        <v>0.9813750199652657</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8199157134219108</v>
+        <v>0.7887506119803336</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9806972056205012</v>
+        <v>0.9751287592240343</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6819352390801028</v>
+        <v>0.83371371812455</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9301598192960732</v>
+        <v>0.9020453273836777</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1579872744616998</v>
+        <v>0.1245453272524161</v>
       </c>
       <c r="H21" t="n">
-        <v>1.204224453559576</v>
+        <v>1.4126256304015</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1170962079022652</v>
+        <v>0.08488575571129436</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6873226513663055</v>
+        <v>0.6740211726334641</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4022094296342854</v>
+        <v>0.3794533521929517</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4741687463996651</v>
+        <v>0.575920883643033</v>
       </c>
       <c r="M21" t="n">
-        <v>0.397476130681705</v>
+        <v>0.3529098004482393</v>
       </c>
       <c r="N21" t="n">
-        <v>1.010698573058324</v>
+        <v>1.008433953223276</v>
       </c>
       <c r="O21" t="n">
-        <v>0.414397512453845</v>
+        <v>0.367933901277319</v>
       </c>
       <c r="P21" t="n">
-        <v>157.6904815811609</v>
+        <v>158.1661711100395</v>
       </c>
       <c r="Q21" t="n">
-        <v>251.5439200960123</v>
+        <v>252.0196096248909</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_4</t>
+          <t>model_20_9_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9751368067823539</v>
+        <v>0.9811150331691593</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8187679554070872</v>
+        <v>0.788238514869815</v>
       </c>
       <c r="D22" t="n">
-        <v>0.981638228974654</v>
+        <v>0.9748739583431526</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6754681405532417</v>
+        <v>0.8303325965218081</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9294421169322892</v>
+        <v>0.9001641049902005</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1662602875308771</v>
+        <v>0.1262838601551083</v>
       </c>
       <c r="H22" t="n">
-        <v>1.21189951668964</v>
+        <v>1.416050026137528</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1113876941942296</v>
+        <v>0.08575539327881154</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7012977402547247</v>
+        <v>0.6877261368782197</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4063426757896539</v>
+        <v>0.3867407650785156</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4943839014198819</v>
+        <v>0.536368269352687</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4077502759421226</v>
+        <v>0.3553644047384436</v>
       </c>
       <c r="N22" t="n">
-        <v>1.011258804475915</v>
+        <v>1.008551683093211</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4251090493484112</v>
+        <v>0.3704930031538886</v>
       </c>
       <c r="P22" t="n">
-        <v>157.5884014429514</v>
+        <v>158.1384460950746</v>
       </c>
       <c r="Q22" t="n">
-        <v>251.4418399578028</v>
+        <v>251.991884609926</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_3</t>
+          <t>model_20_9_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9735320809312799</v>
+        <v>0.9808718173634129</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8172449608949608</v>
+        <v>0.7877695629698014</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9825990124343392</v>
+        <v>0.9746449932455958</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6666319712339284</v>
+        <v>0.8272766877412074</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9282903473202666</v>
+        <v>0.8984644241215042</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1769910966860927</v>
+        <v>0.1279102453680406</v>
       </c>
       <c r="H23" t="n">
-        <v>1.222083788004976</v>
+        <v>1.419185909652244</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1055593100995492</v>
+        <v>0.08653685309871732</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7203922771877284</v>
+        <v>0.7001128905931424</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4129757141645913</v>
+        <v>0.39332492881526</v>
       </c>
       <c r="L23" t="n">
-        <v>0.5158381971017513</v>
+        <v>0.5007697115442189</v>
       </c>
       <c r="M23" t="n">
-        <v>0.420703098022932</v>
+        <v>0.3576454184916125</v>
       </c>
       <c r="N23" t="n">
-        <v>1.011985472785836</v>
+        <v>1.008661818552417</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4386132998812387</v>
+        <v>0.3728711243848793</v>
       </c>
       <c r="P23" t="n">
-        <v>157.4633116977639</v>
+        <v>158.1128529381721</v>
       </c>
       <c r="Q23" t="n">
-        <v>251.3167502126154</v>
+        <v>251.9662914530236</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_2</t>
+          <t>model_20_9_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9714639540375665</v>
+        <v>0.9806452711046085</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8152380845693332</v>
+        <v>0.7873409056262115</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9836290975774069</v>
+        <v>0.9744395587234924</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6545753343565477</v>
+        <v>0.8245137840574763</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9265708480910082</v>
+        <v>0.8969284339353165</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1908206707472025</v>
+        <v>0.1294251612438149</v>
       </c>
       <c r="H24" t="n">
-        <v>1.235503779235262</v>
+        <v>1.422052343282615</v>
       </c>
       <c r="I24" t="n">
-        <v>0.09931052240082089</v>
+        <v>0.08723800286502864</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7464460896288024</v>
+        <v>0.711311983866372</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4228783060148116</v>
+        <v>0.3992749933657003</v>
       </c>
       <c r="L24" t="n">
-        <v>0.5383006899761342</v>
+        <v>0.46873231295029</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4368302539284596</v>
+        <v>0.359757086440024</v>
       </c>
       <c r="N24" t="n">
-        <v>1.012921983077328</v>
+        <v>1.008764405537536</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4554270222014797</v>
+        <v>0.3750726904096099</v>
       </c>
       <c r="P24" t="n">
-        <v>157.312842377173</v>
+        <v>158.0893049406949</v>
       </c>
       <c r="Q24" t="n">
-        <v>251.1662808920245</v>
+        <v>251.9427434555463</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_1</t>
+          <t>model_20_9_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9688161774927903</v>
+        <v>0.9804353649745329</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8126108933166973</v>
+        <v>0.7869498408880578</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9848227979033752</v>
+        <v>0.9742550547446945</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6381847378131389</v>
+        <v>0.8220190060926259</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9241244182272987</v>
+        <v>0.8955419284482738</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2085263646940111</v>
+        <v>0.1308288045021593</v>
       </c>
       <c r="H25" t="n">
-        <v>1.253071819238742</v>
+        <v>1.424667394987337</v>
       </c>
       <c r="I25" t="n">
-        <v>0.09206919874609429</v>
+        <v>0.08786771650951769</v>
       </c>
       <c r="J25" t="n">
-        <v>0.781865380471048</v>
+        <v>0.7214242622236937</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4369672896085712</v>
+        <v>0.4046459893666057</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5614478504695668</v>
+        <v>0.4399016977726546</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4566468708904191</v>
+        <v>0.3617026465235765</v>
       </c>
       <c r="N25" t="n">
-        <v>1.01412097622968</v>
+        <v>1.008859457370023</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4760872735735621</v>
+        <v>0.3771010770137839</v>
       </c>
       <c r="P25" t="n">
-        <v>157.1353795927311</v>
+        <v>158.0677312925941</v>
       </c>
       <c r="Q25" t="n">
-        <v>250.9888181075826</v>
+        <v>251.9211698074455</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_0</t>
+          <t>model_20_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9654505052518138</v>
+        <v>0.9802415342420144</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8091960825210962</v>
+        <v>0.7865935841089736</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9863212334397213</v>
+        <v>0.9740892384671108</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6160941819362487</v>
+        <v>0.8197666344782868</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9207690864276098</v>
+        <v>0.8942904933776743</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2310326304669166</v>
+        <v>0.1321249515030191</v>
       </c>
       <c r="H26" t="n">
-        <v>1.275906674752685</v>
+        <v>1.427049685709484</v>
       </c>
       <c r="I26" t="n">
-        <v>0.08297926515189491</v>
+        <v>0.08843364887126491</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8296020092995512</v>
+        <v>0.7305539759895008</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4562906372257231</v>
+        <v>0.4094937543573667</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5899713330710966</v>
+        <v>0.4139548357389469</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4806585383272793</v>
+        <v>0.3634899606633161</v>
       </c>
       <c r="N26" t="n">
-        <v>1.015645054225594</v>
+        <v>1.008947229777201</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5011211674042133</v>
+        <v>0.3789644808167026</v>
       </c>
       <c r="P26" t="n">
-        <v>156.9303926420074</v>
+        <v>158.0480144036912</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7838311568588</v>
+        <v>251.9014529185426</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_20_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_20_9.xlsx
@@ -518,386 +518,386 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_3</t>
+          <t>model_20_9_10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9812266749386368</v>
+        <v>0.9960283385604185</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8012675748407421</v>
+        <v>0.8164192985014992</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9862363389808571</v>
+        <v>0.9887441459985546</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9600364352356582</v>
+        <v>0.9761417280187151</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9730284498354743</v>
+        <v>0.9820031365484345</v>
       </c>
       <c r="G2" t="n">
-        <v>0.125537311128549</v>
+        <v>0.02655851833430056</v>
       </c>
       <c r="H2" t="n">
-        <v>1.328924642118634</v>
+        <v>1.227604996231879</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04697549179343963</v>
+        <v>0.02912950479745024</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1619874380572814</v>
+        <v>0.1247476670161268</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1044814387145861</v>
+        <v>0.07693856289779032</v>
       </c>
       <c r="L2" t="n">
-        <v>2.316995092418378</v>
+        <v>0.1163133933442063</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3543124484527025</v>
+        <v>0.1629678444795186</v>
       </c>
       <c r="N2" t="n">
-        <v>1.008501128329674</v>
+        <v>1.001798488199056</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3693962629112138</v>
+        <v>0.1699057230089565</v>
       </c>
       <c r="P2" t="n">
-        <v>158.1503045295321</v>
+        <v>161.2568094830723</v>
       </c>
       <c r="Q2" t="n">
-        <v>252.0037430443836</v>
+        <v>255.1102479979237</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_2</t>
+          <t>model_20_9_9</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9792252676103977</v>
+        <v>0.9961108998021547</v>
       </c>
       <c r="C3" t="n">
-        <v>0.801251021918076</v>
+        <v>0.8164143148000046</v>
       </c>
       <c r="D3" t="n">
-        <v>0.987446547214488</v>
+        <v>0.9891090612657482</v>
       </c>
       <c r="E3" t="n">
-        <v>0.972080329630748</v>
+        <v>0.9771641666213923</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9798627390201924</v>
+        <v>0.9827388317390472</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1389207311481171</v>
+        <v>0.02600643093065095</v>
       </c>
       <c r="H3" t="n">
-        <v>1.329035331588721</v>
+        <v>1.227638322266721</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0428450408277979</v>
+        <v>0.02818512500849685</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1131689803246561</v>
+        <v>0.1194016457095016</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07800701057622703</v>
+        <v>0.07379338535899922</v>
       </c>
       <c r="L3" t="n">
-        <v>2.556092558592106</v>
+        <v>0.1126796571158333</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3727207146753681</v>
+        <v>0.1612650952024366</v>
       </c>
       <c r="N3" t="n">
-        <v>1.009407425987744</v>
+        <v>1.001761101976383</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3885882071373426</v>
+        <v>0.1681304841699723</v>
       </c>
       <c r="P3" t="n">
-        <v>157.9477035760652</v>
+        <v>161.2988228561169</v>
       </c>
       <c r="Q3" t="n">
-        <v>251.8011420909166</v>
+        <v>255.1522613709683</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_4</t>
+          <t>model_20_9_11</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9825749057438474</v>
+        <v>0.9959423912049655</v>
       </c>
       <c r="C4" t="n">
-        <v>0.80088385306806</v>
+        <v>0.8164135912489683</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9850175964720681</v>
+        <v>0.9883981968345409</v>
       </c>
       <c r="E4" t="n">
-        <v>0.947759482183727</v>
+        <v>0.9751859528677252</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9660684472164717</v>
+        <v>0.9813139482373496</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1165216855260739</v>
+        <v>0.02713324869596574</v>
       </c>
       <c r="H4" t="n">
-        <v>1.331490591379435</v>
+        <v>1.227643160655832</v>
       </c>
       <c r="I4" t="n">
-        <v>0.051135070312578</v>
+        <v>0.03002480139880263</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2117505706446505</v>
+        <v>0.1297451253555868</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1314428511159811</v>
+        <v>0.07988491843154942</v>
       </c>
       <c r="L4" t="n">
-        <v>2.103083588634546</v>
+        <v>0.1195859704384152</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3413527288979449</v>
+        <v>0.1647217310981333</v>
       </c>
       <c r="N4" t="n">
-        <v>1.007890608719767</v>
+        <v>1.001837407756242</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3558848212646924</v>
+        <v>0.1717342762119715</v>
       </c>
       <c r="P4" t="n">
-        <v>158.2993557628878</v>
+        <v>161.2139908279198</v>
       </c>
       <c r="Q4" t="n">
-        <v>252.1527942777393</v>
+        <v>255.0674293427713</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_1</t>
+          <t>model_20_9_12</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.976339577663538</v>
+        <v>0.9958555670425574</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8006452592273634</v>
+        <v>0.8164001581830856</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9885460698787435</v>
+        <v>0.98807237308861</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9831641756984005</v>
+        <v>0.9742967519659747</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9861459935439792</v>
+        <v>0.9806715529018826</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1582173531101485</v>
+        <v>0.0277138422697779</v>
       </c>
       <c r="H5" t="n">
-        <v>1.333086069490797</v>
+        <v>1.227732987629243</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03909236064920307</v>
+        <v>0.03086801457205459</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0682419614536489</v>
+        <v>0.1343944871404233</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05366716105142598</v>
+        <v>0.08263122886814857</v>
       </c>
       <c r="L5" t="n">
-        <v>2.822202405528613</v>
+        <v>0.1225452217762778</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3977654498698304</v>
+        <v>0.1664747496462388</v>
       </c>
       <c r="N5" t="n">
-        <v>1.010714153510851</v>
+        <v>1.001876724358087</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4146991485587821</v>
+        <v>0.1735619243889185</v>
       </c>
       <c r="P5" t="n">
-        <v>157.6875710774049</v>
+        <v>161.1716465393543</v>
       </c>
       <c r="Q5" t="n">
-        <v>251.5410095922563</v>
+        <v>255.0250850542058</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_5</t>
+          <t>model_20_9_8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9834405452335968</v>
+        <v>0.9961867224803969</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8002346104366046</v>
+        <v>0.816394832106218</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9838456249475234</v>
+        <v>0.9894903574832044</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9357016002262032</v>
+        <v>0.9782519443753767</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9592436765904341</v>
+        <v>0.9835194471329129</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1107331502722165</v>
+        <v>0.02549940433211477</v>
       </c>
       <c r="H6" t="n">
-        <v>1.335832079845465</v>
+        <v>1.227768603129782</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05513501906580742</v>
+        <v>0.02719835225947096</v>
       </c>
       <c r="J6" t="n">
-        <v>0.260625725256463</v>
+        <v>0.1137139858006855</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1578804065978052</v>
+        <v>0.0704561690300782</v>
       </c>
       <c r="L6" t="n">
-        <v>1.910611416537211</v>
+        <v>0.1086620340208498</v>
       </c>
       <c r="M6" t="n">
-        <v>0.332765909119634</v>
+        <v>0.1596853291073252</v>
       </c>
       <c r="N6" t="n">
-        <v>1.007498621026296</v>
+        <v>1.001726767178688</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3469324427912514</v>
+        <v>0.1664834641616253</v>
       </c>
       <c r="P6" t="n">
-        <v>158.4012640472865</v>
+        <v>161.338200373231</v>
       </c>
       <c r="Q6" t="n">
-        <v>252.2547025621379</v>
+        <v>255.1916388880825</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_6</t>
+          <t>model_20_9_13</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9839504768128167</v>
+        <v>0.9957697261440813</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7994163835566835</v>
+        <v>0.8163813659578799</v>
       </c>
       <c r="D7" t="n">
-        <v>0.982748917611434</v>
+        <v>0.9877674372823663</v>
       </c>
       <c r="E7" t="n">
-        <v>0.924132829705727</v>
+        <v>0.9734727975781444</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9527079668068911</v>
+        <v>0.9800753970774596</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1073232354539541</v>
+        <v>0.02828786075314857</v>
       </c>
       <c r="H7" t="n">
-        <v>1.341303566759085</v>
+        <v>1.227858651325724</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05887809050549335</v>
+        <v>0.03165717095501307</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3075183262828021</v>
+        <v>0.1387026946958634</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1831982083941477</v>
+        <v>0.08517986032927453</v>
       </c>
       <c r="L7" t="n">
-        <v>1.73742002240757</v>
+        <v>0.1252094532431173</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3276022519061096</v>
+        <v>0.1681899543764388</v>
       </c>
       <c r="N7" t="n">
-        <v>1.007267708613064</v>
+        <v>1.001915595708341</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3415489579999033</v>
+        <v>0.1753501489354464</v>
       </c>
       <c r="P7" t="n">
-        <v>158.4638202123063</v>
+        <v>161.1306450300195</v>
       </c>
       <c r="Q7" t="n">
-        <v>252.3172587271577</v>
+        <v>254.9840835448709</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_0</t>
+          <t>model_20_9_14</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9722551537706656</v>
+        <v>0.9956862185645241</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7991848433241506</v>
+        <v>0.8163589598773136</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9893564492931158</v>
+        <v>0.9874833670152745</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9921489945721358</v>
+        <v>0.9727120119426005</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9912036961860492</v>
+        <v>0.9795241623666739</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1855299144888291</v>
+        <v>0.0288462763221647</v>
       </c>
       <c r="H8" t="n">
-        <v>1.342851877360177</v>
+        <v>1.228008480889642</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03632652883479888</v>
+        <v>0.03239232851897927</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03182309343355395</v>
+        <v>0.1426806120072232</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03407481113417642</v>
+        <v>0.08753644910827854</v>
       </c>
       <c r="L8" t="n">
-        <v>3.118093671233593</v>
+        <v>0.1276149403516943</v>
       </c>
       <c r="M8" t="n">
-        <v>0.430731835936037</v>
+        <v>0.1698419156809199</v>
       </c>
       <c r="N8" t="n">
-        <v>1.012563703952906</v>
+        <v>1.001953410461348</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4490689819296541</v>
+        <v>0.1770724376526905</v>
       </c>
       <c r="P8" t="n">
-        <v>157.3690782916912</v>
+        <v>161.0915487292945</v>
       </c>
       <c r="Q8" t="n">
-        <v>251.2225168065426</v>
+        <v>254.9449872441459</v>
       </c>
     </row>
     <row r="9">
@@ -907,987 +907,987 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9841994469486148</v>
+        <v>0.9962514353228069</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7984983482344549</v>
+        <v>0.8163560355491224</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9817389620263993</v>
+        <v>0.9898842904008619</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9132054326933223</v>
+        <v>0.9794017611649363</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9465460206806796</v>
+        <v>0.9843418162691093</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1056583710094695</v>
+        <v>0.02506666925694331</v>
       </c>
       <c r="H9" t="n">
-        <v>1.347442473185993</v>
+        <v>1.228028035885721</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06232507748305343</v>
+        <v>0.0261788764548536</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3518111979801143</v>
+        <v>0.1077019425937817</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2070681377315839</v>
+        <v>0.06694045087837217</v>
       </c>
       <c r="L9" t="n">
-        <v>1.581581741228086</v>
+        <v>0.1042062850618984</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3250513359601364</v>
+        <v>0.1583245693407795</v>
       </c>
       <c r="N9" t="n">
-        <v>1.007154967419495</v>
+        <v>1.00169746325005</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3388894442809861</v>
+        <v>0.1650647740346568</v>
       </c>
       <c r="P9" t="n">
-        <v>158.4950886093034</v>
+        <v>161.3724324667179</v>
       </c>
       <c r="Q9" t="n">
-        <v>252.3485271241548</v>
+        <v>255.2258709815693</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_8</t>
+          <t>model_20_9_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9842587858121115</v>
+        <v>0.9956059533270544</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7975299188312105</v>
+        <v>0.8163344098172935</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9808184325701219</v>
+        <v>0.9872199710846455</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9029958866656476</v>
+        <v>0.9720112795285145</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9407990369811153</v>
+        <v>0.9790159214130745</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1052615717560376</v>
+        <v>0.02938301033471187</v>
       </c>
       <c r="H10" t="n">
-        <v>1.353918365064695</v>
+        <v>1.228172647254038</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06546685232470584</v>
+        <v>0.03307398208555014</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3931943482196688</v>
+        <v>0.1463445292401384</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2293306002721873</v>
+        <v>0.08970923486514036</v>
       </c>
       <c r="L10" t="n">
-        <v>1.441354095502067</v>
+        <v>0.1297831804612462</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3244403978484147</v>
+        <v>0.1714147319652307</v>
       </c>
       <c r="N10" t="n">
-        <v>1.007128096990742</v>
+        <v>1.001989756983975</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3382524972690321</v>
+        <v>0.178712211982403</v>
       </c>
       <c r="P10" t="n">
-        <v>158.5026137340753</v>
+        <v>161.0546773028921</v>
       </c>
       <c r="Q10" t="n">
-        <v>252.3560522489268</v>
+        <v>254.9081158177436</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_9</t>
+          <t>model_20_9_16</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9841821497619918</v>
+        <v>0.9955296088271826</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7965463676543676</v>
+        <v>0.8163087056172226</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9799847950187647</v>
+        <v>0.9869768248158467</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8935304855801041</v>
+        <v>0.9713678887205419</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9354796326011098</v>
+        <v>0.9785488707427252</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1057740373760639</v>
+        <v>0.02989352635688896</v>
       </c>
       <c r="H11" t="n">
-        <v>1.360495376313081</v>
+        <v>1.22834453135827</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06831206435790101</v>
+        <v>0.03370323068832611</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4315611976504757</v>
+        <v>0.1497086246087035</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2499367211416743</v>
+        <v>0.09170592764851479</v>
       </c>
       <c r="L11" t="n">
-        <v>1.315170905624967</v>
+        <v>0.1317391462225655</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3252292074461701</v>
+        <v>0.1728974446222065</v>
       </c>
       <c r="N11" t="n">
-        <v>1.007162800107777</v>
+        <v>1.002024328078257</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3390748881244249</v>
+        <v>0.1802580467868246</v>
       </c>
       <c r="P11" t="n">
-        <v>158.4929003661856</v>
+        <v>161.0202266636603</v>
       </c>
       <c r="Q11" t="n">
-        <v>252.346338881037</v>
+        <v>254.8736651785118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_10</t>
+          <t>model_20_9_6</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9840100684404195</v>
+        <v>0.9962993241419387</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7955724082525637</v>
+        <v>0.816291836107</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9792328201241767</v>
+        <v>0.9902858225632244</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8848054447445514</v>
+        <v>0.9806073560950352</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9305835936254936</v>
+        <v>0.9852006106447542</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1069247459657797</v>
+        <v>0.02474643650290191</v>
       </c>
       <c r="H12" t="n">
-        <v>1.367008247317614</v>
+        <v>1.228457337850805</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07087856105092934</v>
+        <v>0.02513973424064531</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4669270870607573</v>
+        <v>0.1013982524097531</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2689028240558433</v>
+        <v>0.06326901083746501</v>
       </c>
       <c r="L12" t="n">
-        <v>1.201626317230572</v>
+        <v>0.0992747159015244</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3269934952958235</v>
+        <v>0.1573100012805985</v>
       </c>
       <c r="N12" t="n">
-        <v>1.007240723725093</v>
+        <v>1.001675777747047</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3409142853604173</v>
+        <v>0.1640070137117084</v>
       </c>
       <c r="P12" t="n">
-        <v>158.4712600013777</v>
+        <v>161.3981475600285</v>
       </c>
       <c r="Q12" t="n">
-        <v>252.3246985162292</v>
+        <v>255.2515860748799</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_11</t>
+          <t>model_20_9_17</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9837730925706943</v>
+        <v>0.9954575236842272</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7946252424617298</v>
+        <v>0.8162826469446219</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9785563643420643</v>
+        <v>0.9867527435073751</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8767963992418509</v>
+        <v>0.970778299097228</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9260953965229347</v>
+        <v>0.978120496355395</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1085094046978054</v>
+        <v>0.03037556003975255</v>
       </c>
       <c r="H13" t="n">
-        <v>1.373341949322217</v>
+        <v>1.228518785821939</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07318731037257063</v>
+        <v>0.03428314026687098</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4993907766719557</v>
+        <v>0.1527914099027522</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2862890435222631</v>
+        <v>0.09353727508481161</v>
       </c>
       <c r="L13" t="n">
-        <v>1.099447420773646</v>
+        <v>0.1335058787889241</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3294076573150742</v>
+        <v>0.1742858572568427</v>
       </c>
       <c r="N13" t="n">
-        <v>1.007348033552893</v>
+        <v>1.002056970407142</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3434312232548319</v>
+        <v>0.1817055670217276</v>
       </c>
       <c r="P13" t="n">
-        <v>158.4418368610312</v>
+        <v>160.9882338799374</v>
       </c>
       <c r="Q13" t="n">
-        <v>252.2952753758827</v>
+        <v>254.8416723947888</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_12</t>
+          <t>model_20_9_18</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9834943233727176</v>
+        <v>0.9953899219846494</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7937164433841232</v>
+        <v>0.8162568112784915</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9779487424334791</v>
+        <v>0.9865468627082201</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8694697275472781</v>
+        <v>0.970239088355644</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9219945705299538</v>
+        <v>0.9777284458947632</v>
       </c>
       <c r="G14" t="n">
-        <v>0.11037353560829</v>
+        <v>0.03082761291610694</v>
       </c>
       <c r="H14" t="n">
-        <v>1.379419092938808</v>
+        <v>1.228691549040316</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07526112910005579</v>
+        <v>0.03481594797083703</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5290885472359474</v>
+        <v>0.1556107793061779</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3021746784617168</v>
+        <v>0.09521333375501324</v>
       </c>
       <c r="L14" t="n">
-        <v>1.00749903851239</v>
+        <v>0.1350922848350773</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3322251279001785</v>
+        <v>0.1755779397193934</v>
       </c>
       <c r="N14" t="n">
-        <v>1.007474268661411</v>
+        <v>1.002087582497517</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3463686393957122</v>
+        <v>0.1830526561096885</v>
       </c>
       <c r="P14" t="n">
-        <v>158.4077697751362</v>
+        <v>160.9586889347786</v>
       </c>
       <c r="Q14" t="n">
-        <v>252.2612082899876</v>
+        <v>254.8121274496301</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_13</t>
+          <t>model_20_9_19</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9831909362038558</v>
+        <v>0.9953268650515484</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7928533280481075</v>
+        <v>0.8162316375090296</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9774034601682154</v>
+        <v>0.9863582391085313</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8627839074969651</v>
+        <v>0.9697468562503129</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9182564073659469</v>
+        <v>0.9773703450409165</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1124022870034382</v>
+        <v>0.03124927491810362</v>
       </c>
       <c r="H15" t="n">
-        <v>1.385190749165025</v>
+        <v>1.228859886152622</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0771221820961572</v>
+        <v>0.03530409503203234</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5561887037822563</v>
+        <v>0.1581845116711483</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3166554429392067</v>
+        <v>0.09674425413686709</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9247558423067461</v>
+        <v>0.1365238273464736</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3352645030471288</v>
+        <v>0.1767746444434371</v>
       </c>
       <c r="N15" t="n">
-        <v>1.007611651530329</v>
+        <v>1.002116136580431</v>
       </c>
       <c r="O15" t="n">
-        <v>0.349537407035042</v>
+        <v>0.1843003070313551</v>
       </c>
       <c r="P15" t="n">
-        <v>158.3713419894477</v>
+        <v>160.9315182113792</v>
       </c>
       <c r="Q15" t="n">
-        <v>252.2247805042992</v>
+        <v>254.7849567262306</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_14</t>
+          <t>model_20_9_20</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9828758217573967</v>
+        <v>0.9952683498449024</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7920403210986815</v>
+        <v>0.8162074330569493</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9769142352494846</v>
+        <v>0.9861857464195668</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8566960731463389</v>
+        <v>0.9692983965820624</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9148558795696969</v>
+        <v>0.9770438786483936</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1145094587578786</v>
+        <v>0.03164056637438346</v>
       </c>
       <c r="H16" t="n">
-        <v>1.390627330379389</v>
+        <v>1.229021741435135</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07879191089309748</v>
+        <v>0.03575049622114435</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5808649981916821</v>
+        <v>0.1605293712405653</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3298282874503259</v>
+        <v>0.09813993373085485</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8502946087014013</v>
+        <v>0.1378167589083508</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3383924626197791</v>
+        <v>0.1778779535928595</v>
       </c>
       <c r="N16" t="n">
-        <v>1.007754344864575</v>
+        <v>1.002142634032497</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3527985303224691</v>
+        <v>0.1854505863354331</v>
       </c>
       <c r="P16" t="n">
-        <v>158.3341957003214</v>
+        <v>160.9066304713238</v>
       </c>
       <c r="Q16" t="n">
-        <v>252.1876342151728</v>
+        <v>254.7600689861752</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_15</t>
+          <t>model_20_9_5</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9825583590465906</v>
+        <v>0.9963230801268094</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7912793924298598</v>
+        <v>0.8161945131331141</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9764755475980478</v>
+        <v>0.9906873342038521</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8511608777833817</v>
+        <v>0.9818593905951298</v>
       </c>
       <c r="F17" t="n">
-        <v>0.911766660114699</v>
+        <v>0.9860877964163723</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1166323333668206</v>
+        <v>0.02458758012268501</v>
       </c>
       <c r="H17" t="n">
-        <v>1.395715663891555</v>
+        <v>1.229108137025311</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08028915556813641</v>
+        <v>0.02410064513550976</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6033012378334472</v>
+        <v>0.09485174380120727</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3417951967007918</v>
+        <v>0.05947619446835851</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7832839848832152</v>
+        <v>0.09381678287720323</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3415147630290974</v>
+        <v>0.1568042732921683</v>
       </c>
       <c r="N17" t="n">
-        <v>1.007898101563808</v>
+        <v>1.001665020319935</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3560537535242649</v>
+        <v>0.1634797558358095</v>
       </c>
       <c r="P17" t="n">
-        <v>158.297457483809</v>
+        <v>161.4110276731934</v>
       </c>
       <c r="Q17" t="n">
-        <v>252.1508959986604</v>
+        <v>255.2644661880449</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_16</t>
+          <t>model_20_9_21</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.982245476718557</v>
+        <v>0.9952142061201126</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7905710643674075</v>
+        <v>0.816184382245715</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9760821814076238</v>
+        <v>0.9860282860078277</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8461362783575836</v>
+        <v>0.9688900049172269</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9089645844693401</v>
+        <v>0.976746477471061</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1187245789350722</v>
+        <v>0.03200262571136184</v>
       </c>
       <c r="H18" t="n">
-        <v>1.400452256906723</v>
+        <v>1.229175882315998</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08163171771234934</v>
+        <v>0.03615799473867802</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6236678390875813</v>
+        <v>0.1626647273743633</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3526497783999653</v>
+        <v>0.09941135634567097</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7229826172091226</v>
+        <v>0.1389756594370014</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3445643320703294</v>
+        <v>0.1788927771358079</v>
       </c>
       <c r="N18" t="n">
-        <v>1.008039784127446</v>
+        <v>1.002167151945609</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3592331490330604</v>
+        <v>0.1865086130175793</v>
       </c>
       <c r="P18" t="n">
-        <v>158.2618978622196</v>
+        <v>160.8838746521371</v>
       </c>
       <c r="Q18" t="n">
-        <v>252.115336377071</v>
+        <v>254.7373131669885</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_17</t>
+          <t>model_20_9_22</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9819419519366951</v>
+        <v>0.995164302210225</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7899146302022744</v>
+        <v>0.8161626179304898</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9757292771968575</v>
+        <v>0.9858847258511974</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8415796726676512</v>
+        <v>0.9685188079957804</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9064251799978442</v>
+        <v>0.9764760136014302</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1207542505489854</v>
+        <v>0.03233633338656636</v>
       </c>
       <c r="H19" t="n">
-        <v>1.404841835191571</v>
+        <v>1.229321420392124</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08283618277681595</v>
+        <v>0.03652952019296597</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6421374847836525</v>
+        <v>0.1646056034776432</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3624868337802342</v>
+        <v>0.1005676190189515</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6687120533376507</v>
+        <v>0.1400218096719085</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3474971230801565</v>
+        <v>0.1798230613313163</v>
       </c>
       <c r="N19" t="n">
-        <v>1.008177229311685</v>
+        <v>1.00218974994254</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3622907950278901</v>
+        <v>0.1874785013372442</v>
       </c>
       <c r="P19" t="n">
-        <v>158.2279955716703</v>
+        <v>160.8631276165992</v>
       </c>
       <c r="Q19" t="n">
-        <v>252.0814340865218</v>
+        <v>254.7165661314506</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_18</t>
+          <t>model_20_9_23</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9816510477757743</v>
+        <v>0.9951184400175815</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7893085058729354</v>
+        <v>0.8161421819892652</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9754127148708563</v>
+        <v>0.9857541435459589</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8374509353602213</v>
+        <v>0.9681817006550916</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9041256387651296</v>
+        <v>0.9762303425061681</v>
       </c>
       <c r="G20" t="n">
-        <v>0.122699528012554</v>
+        <v>0.03264301407994948</v>
       </c>
       <c r="H20" t="n">
-        <v>1.408894991372806</v>
+        <v>1.229458075625192</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08391661268034951</v>
+        <v>0.03686745971194126</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6588728181500805</v>
+        <v>0.1663682355038821</v>
       </c>
       <c r="K20" t="n">
-        <v>0.371394715415215</v>
+        <v>0.1016178898656388</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6198755109220305</v>
+        <v>0.1409673374862688</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3502849240440616</v>
+        <v>0.1806737780640829</v>
       </c>
       <c r="N20" t="n">
-        <v>1.008308959497763</v>
+        <v>1.002210517727887</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3651972784503723</v>
+        <v>0.1883654348425511</v>
       </c>
       <c r="P20" t="n">
-        <v>158.1960335479022</v>
+        <v>160.8442488200278</v>
       </c>
       <c r="Q20" t="n">
-        <v>252.0494720627537</v>
+        <v>254.6976873348792</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_19</t>
+          <t>model_20_9_24</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9813750199652657</v>
+        <v>0.9950763601671075</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7887506119803336</v>
+        <v>0.8161231192495908</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9751287592240343</v>
+        <v>0.9856353372269555</v>
       </c>
       <c r="E21" t="n">
-        <v>0.83371371812455</v>
+        <v>0.9678757107213353</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9020453273836777</v>
+        <v>0.9760072756670707</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1245453272524161</v>
+        <v>0.03292440223382833</v>
       </c>
       <c r="H21" t="n">
-        <v>1.4126256304015</v>
+        <v>1.22958554825317</v>
       </c>
       <c r="I21" t="n">
-        <v>0.08488575571129436</v>
+        <v>0.03717492365372069</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6740211726334641</v>
+        <v>0.1679681640484333</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3794533521929517</v>
+        <v>0.102571525040818</v>
       </c>
       <c r="L21" t="n">
-        <v>0.575920883643033</v>
+        <v>0.1418195521241623</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3529098004482393</v>
+        <v>0.1814508259386778</v>
       </c>
       <c r="N21" t="n">
-        <v>1.008433953223276</v>
+        <v>1.002229572754517</v>
       </c>
       <c r="O21" t="n">
-        <v>0.367933901277319</v>
+        <v>0.1891755632538783</v>
       </c>
       <c r="P21" t="n">
-        <v>158.1661711100395</v>
+        <v>160.8270823738125</v>
       </c>
       <c r="Q21" t="n">
-        <v>252.0196096248909</v>
+        <v>254.6805208886639</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_20</t>
+          <t>model_20_9_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9811150331691593</v>
+        <v>0.9963133075698455</v>
       </c>
       <c r="C22" t="n">
-        <v>0.788238514869815</v>
+        <v>0.816054416243875</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9748739583431526</v>
+        <v>0.9910788539503885</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8303325965218081</v>
+        <v>0.9831438461268301</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9001641049902005</v>
+        <v>0.9869917704536345</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1262838601551083</v>
+        <v>0.02465292925610097</v>
       </c>
       <c r="H22" t="n">
-        <v>1.416050026137528</v>
+        <v>1.23004496556874</v>
       </c>
       <c r="I22" t="n">
-        <v>0.08575539327881154</v>
+        <v>0.02308741447939376</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6877261368782197</v>
+        <v>0.0881357154529991</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3867407650785156</v>
+        <v>0.0556116064243892</v>
       </c>
       <c r="L22" t="n">
-        <v>0.536368269352687</v>
+        <v>0.09661224994468093</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3553644047384436</v>
+        <v>0.1570125130558102</v>
       </c>
       <c r="N22" t="n">
-        <v>1.008551683093211</v>
+        <v>1.001669445628749</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3704930031538886</v>
+        <v>0.1636968607973053</v>
       </c>
       <c r="P22" t="n">
-        <v>158.1384460950746</v>
+        <v>161.4057191032695</v>
       </c>
       <c r="Q22" t="n">
-        <v>251.991884609926</v>
+        <v>255.2591576181209</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_21</t>
+          <t>model_20_9_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9808718173634129</v>
+        <v>0.9962581136955414</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7877695629698014</v>
+        <v>0.8158593746072302</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9746449932455958</v>
+        <v>0.9914469676082239</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8272766877412074</v>
+        <v>0.9844415559090161</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8984644241215042</v>
+        <v>0.9878967914928865</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1279102453680406</v>
+        <v>0.02502201094771659</v>
       </c>
       <c r="H23" t="n">
-        <v>1.419185909652244</v>
+        <v>1.231349209891068</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08653685309871732</v>
+        <v>0.02213475743883988</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7001128905931424</v>
+        <v>0.08135038464954948</v>
       </c>
       <c r="K23" t="n">
-        <v>0.39332492881526</v>
+        <v>0.05174254233220997</v>
       </c>
       <c r="L23" t="n">
-        <v>0.5007697115442189</v>
+        <v>0.1033656069362781</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3576454184916125</v>
+        <v>0.1581834724227427</v>
       </c>
       <c r="N23" t="n">
-        <v>1.008661818552417</v>
+        <v>1.001694439081264</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3728711243848793</v>
+        <v>0.1649176703287082</v>
       </c>
       <c r="P23" t="n">
-        <v>158.1128529381721</v>
+        <v>161.3759988071268</v>
       </c>
       <c r="Q23" t="n">
-        <v>251.9662914530236</v>
+        <v>255.2294373219782</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_22</t>
+          <t>model_20_9_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9806452711046085</v>
+        <v>0.9961423818712192</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7873409056262115</v>
+        <v>0.8155941666830729</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9744395587234924</v>
+        <v>0.991773843104449</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8245137840574763</v>
+        <v>0.9857258621149946</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8969284339353165</v>
+        <v>0.9887811144541074</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1294251612438149</v>
+        <v>0.02579591018985587</v>
       </c>
       <c r="H24" t="n">
-        <v>1.422052343282615</v>
+        <v>1.233122656501078</v>
       </c>
       <c r="I24" t="n">
-        <v>0.08723800286502864</v>
+        <v>0.02128882239612931</v>
       </c>
       <c r="J24" t="n">
-        <v>0.711311983866372</v>
+        <v>0.07463513708024393</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3992749933657003</v>
+        <v>0.04796196479118613</v>
       </c>
       <c r="L24" t="n">
-        <v>0.46873231295029</v>
+        <v>0.1108451639494912</v>
       </c>
       <c r="M24" t="n">
-        <v>0.359757086440024</v>
+        <v>0.1606110525146257</v>
       </c>
       <c r="N24" t="n">
-        <v>1.008764405537536</v>
+        <v>1.001746845945108</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3750726904096099</v>
+        <v>0.1674485975308863</v>
       </c>
       <c r="P24" t="n">
-        <v>158.0893049406949</v>
+        <v>161.3150786387864</v>
       </c>
       <c r="Q24" t="n">
-        <v>251.9427434555463</v>
+        <v>255.1685171536378</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_23</t>
+          <t>model_20_9_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9804353649745329</v>
+        <v>0.9959470952098581</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7869498408880578</v>
+        <v>0.8152398055992879</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9742550547446945</v>
+        <v>0.9920364282057517</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8220190060926259</v>
+        <v>0.9869618086285844</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8955419284482738</v>
+        <v>0.9896164047090705</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1308288045021593</v>
+        <v>0.02710179299358962</v>
       </c>
       <c r="H25" t="n">
-        <v>1.424667394987337</v>
+        <v>1.235492270700031</v>
       </c>
       <c r="I25" t="n">
-        <v>0.08786771650951769</v>
+        <v>0.02060926720936573</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7214242622236937</v>
+        <v>0.06817274767299805</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4046459893666057</v>
+        <v>0.04439100744118189</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4399016977726546</v>
+        <v>0.1191400735445336</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3617026465235765</v>
+        <v>0.1646262220716664</v>
       </c>
       <c r="N25" t="n">
-        <v>1.008859457370023</v>
+        <v>1.001835277640819</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3771010770137839</v>
+        <v>0.1716347011685169</v>
       </c>
       <c r="P25" t="n">
-        <v>158.0677312925941</v>
+        <v>161.2163107823201</v>
       </c>
       <c r="Q25" t="n">
-        <v>251.9211698074455</v>
+        <v>255.0697492971715</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_24</t>
+          <t>model_20_9_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9802415342420144</v>
+        <v>0.9956483237916566</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7865935841089736</v>
+        <v>0.8147724533960972</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9740892384671108</v>
+        <v>0.9922045505554213</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8197666344782868</v>
+        <v>0.9881033341714157</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8942904933776743</v>
+        <v>0.9903653658423901</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1321249515030191</v>
+        <v>0.02909967884281921</v>
       </c>
       <c r="H26" t="n">
-        <v>1.427049685709484</v>
+        <v>1.238617457034726</v>
       </c>
       <c r="I26" t="n">
-        <v>0.08843364887126491</v>
+        <v>0.02017417620777399</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7305539759895008</v>
+        <v>0.06220405688016832</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4094937543573667</v>
+        <v>0.04118911654397116</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4139548357389469</v>
+        <v>0.1283421469545024</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3634899606633161</v>
+        <v>0.1705862797613548</v>
       </c>
       <c r="N26" t="n">
-        <v>1.008947229777201</v>
+        <v>1.001970570358495</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3789644808167026</v>
+        <v>0.1778484908530756</v>
       </c>
       <c r="P26" t="n">
-        <v>158.0480144036912</v>
+        <v>161.0740562823896</v>
       </c>
       <c r="Q26" t="n">
-        <v>251.9014529185426</v>
+        <v>254.9274947972411</v>
       </c>
     </row>
   </sheetData>
